--- a/Document/DATN/10. WAM.TestCaseSprint1.xlsx
+++ b/Document/DATN/10. WAM.TestCaseSprint1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test_case_list" sheetId="10" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="497">
   <si>
     <t>Project Name</t>
   </si>
@@ -440,9 +440,6 @@
   </si>
   <si>
     <t>Tuấn</t>
-  </si>
-  <si>
-    <t>\</t>
   </si>
   <si>
     <t>Trung</t>
@@ -2191,6 +2188,31 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2212,31 +2234,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2252,6 +2249,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2264,11 +2264,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2289,15 +2295,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2795,7 +2792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:E4"/>
     </sheetView>
   </sheetViews>
@@ -2813,22 +2810,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="31.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="102" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
       <c r="O1" s="22"/>
       <c r="P1" s="22"/>
       <c r="Q1" s="22"/>
@@ -2843,24 +2840,24 @@
       <c r="Z1" s="22"/>
     </row>
     <row r="2" spans="1:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="106" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="117" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="108"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="119"/>
       <c r="O2" s="22"/>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
@@ -2875,15 +2872,15 @@
       <c r="Z2" s="22"/>
     </row>
     <row r="3" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="115" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="102">
+      <c r="B3" s="116"/>
+      <c r="C3" s="113">
         <v>1</v>
       </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
       <c r="F3" s="26"/>
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
@@ -2907,15 +2904,15 @@
       <c r="Z3" s="22"/>
     </row>
     <row r="4" spans="1:26" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="104" t="s">
+      <c r="A4" s="115" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="102" t="s">
+      <c r="B4" s="116"/>
+      <c r="C4" s="113" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
       <c r="F4" s="26"/>
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
@@ -2939,15 +2936,15 @@
       <c r="Z4" s="22"/>
     </row>
     <row r="5" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="115" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="103">
+      <c r="B5" s="116"/>
+      <c r="C5" s="114">
         <v>44691</v>
       </c>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
@@ -2999,30 +2996,30 @@
       <c r="Z6" s="22"/>
     </row>
     <row r="7" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="108" t="s">
         <v>108</v>
       </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="115" t="s">
+      <c r="B7" s="109"/>
+      <c r="C7" s="108" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="117"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="115" t="s">
+      <c r="D7" s="110"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="108" t="s">
         <v>110</v>
       </c>
-      <c r="G7" s="117"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="115" t="s">
+      <c r="G7" s="110"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="108" t="s">
         <v>106</v>
       </c>
-      <c r="J7" s="117"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="115" t="s">
+      <c r="J7" s="110"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="108" t="s">
         <v>111</v>
       </c>
-      <c r="M7" s="117"/>
-      <c r="N7" s="116"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="109"/>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
@@ -3037,26 +3034,26 @@
       <c r="Z7" s="22"/>
     </row>
     <row r="8" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="109">
+      <c r="A8" s="104">
         <v>1</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="111" t="s">
+      <c r="B8" s="105"/>
+      <c r="C8" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="112"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="111" t="s">
+      <c r="D8" s="107"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="106" t="s">
         <v>119</v>
       </c>
-      <c r="G8" s="112"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="110"/>
+      <c r="G8" s="107"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="105"/>
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
@@ -3071,26 +3068,26 @@
       <c r="Z8" s="22"/>
     </row>
     <row r="9" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="109">
+      <c r="A9" s="104">
         <v>2</v>
       </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="114" t="s">
+      <c r="B9" s="105"/>
+      <c r="C9" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="112"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="114" t="s">
+      <c r="D9" s="107"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="G9" s="112"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="112"/>
-      <c r="N9" s="110"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="105"/>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
@@ -3105,26 +3102,26 @@
       <c r="Z9" s="22"/>
     </row>
     <row r="10" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="109">
+      <c r="A10" s="104">
         <v>3</v>
       </c>
-      <c r="B10" s="110"/>
-      <c r="C10" s="114" t="s">
+      <c r="B10" s="105"/>
+      <c r="C10" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="112"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="114" t="s">
+      <c r="D10" s="107"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="G10" s="112"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="112"/>
-      <c r="N10" s="110"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="105"/>
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
@@ -3139,26 +3136,26 @@
       <c r="Z10" s="22"/>
     </row>
     <row r="11" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="109">
+      <c r="A11" s="104">
         <v>4</v>
       </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="111" t="s">
+      <c r="B11" s="105"/>
+      <c r="C11" s="106" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="112"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="111" t="s">
+      <c r="D11" s="107"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="106" t="s">
         <v>122</v>
       </c>
-      <c r="G11" s="112"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="109"/>
-      <c r="M11" s="112"/>
-      <c r="N11" s="110"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="107"/>
+      <c r="N11" s="105"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
@@ -3173,26 +3170,26 @@
       <c r="Z11" s="22"/>
     </row>
     <row r="12" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="109">
+      <c r="A12" s="104">
         <v>5</v>
       </c>
-      <c r="B12" s="110"/>
-      <c r="C12" s="111" t="s">
+      <c r="B12" s="105"/>
+      <c r="C12" s="106" t="s">
         <v>115</v>
       </c>
-      <c r="D12" s="112"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="111" t="s">
+      <c r="D12" s="107"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="106" t="s">
         <v>123</v>
       </c>
-      <c r="G12" s="112"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="112"/>
-      <c r="N12" s="110"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="105"/>
+      <c r="L12" s="104"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="105"/>
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
@@ -3207,26 +3204,26 @@
       <c r="Z12" s="22"/>
     </row>
     <row r="13" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="109">
+      <c r="A13" s="104">
         <v>6</v>
       </c>
-      <c r="B13" s="110"/>
-      <c r="C13" s="113" t="s">
+      <c r="B13" s="105"/>
+      <c r="C13" s="112" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="112"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="113" t="s">
+      <c r="D13" s="107"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="112" t="s">
         <v>124</v>
       </c>
-      <c r="G13" s="112"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="109"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="110"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="105"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="105"/>
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
       <c r="Q13" s="22"/>
@@ -3241,26 +3238,26 @@
       <c r="Z13" s="22"/>
     </row>
     <row r="14" spans="1:26" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="109">
+      <c r="A14" s="104">
         <v>7</v>
       </c>
-      <c r="B14" s="110"/>
-      <c r="C14" s="111" t="s">
+      <c r="B14" s="105"/>
+      <c r="C14" s="106" t="s">
         <v>117</v>
       </c>
-      <c r="D14" s="112"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="111" t="s">
+      <c r="D14" s="107"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="106" t="s">
         <v>125</v>
       </c>
-      <c r="G14" s="112"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="109"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="110"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="105"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="105"/>
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
@@ -30702,6 +30699,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C2:N2"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:E8"/>
@@ -30713,44 +30743,11 @@
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="L7:N7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:N14"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -30761,8 +30758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:C36"/>
+    <sheetView topLeftCell="A51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -30887,10 +30884,10 @@
         <v>11</v>
       </c>
       <c r="B35" s="120" t="s">
+        <v>408</v>
+      </c>
+      <c r="C35" s="120" t="s">
         <v>409</v>
-      </c>
-      <c r="C35" s="120" t="s">
-        <v>410</v>
       </c>
       <c r="D35" s="120" t="s">
         <v>14</v>
@@ -30942,16 +30939,16 @@
         <v>23</v>
       </c>
       <c r="C37" s="61" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D37" s="48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E37" s="61" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F37" s="61" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G37" s="62" t="s">
         <v>21</v>
@@ -30974,19 +30971,19 @@
         <v>27</v>
       </c>
       <c r="B38" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="61" t="s">
         <v>151</v>
       </c>
-      <c r="C38" s="61" t="s">
+      <c r="D38" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="D38" s="48" t="s">
+      <c r="E38" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="E38" s="61" t="s">
+      <c r="F38" s="61" t="s">
         <v>154</v>
-      </c>
-      <c r="F38" s="61" t="s">
-        <v>155</v>
       </c>
       <c r="G38" s="62" t="s">
         <v>75</v>
@@ -31009,19 +31006,19 @@
         <v>37</v>
       </c>
       <c r="B39" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="C39" s="61" t="s">
+      <c r="D39" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="D39" s="48" t="s">
+      <c r="E39" s="61" t="s">
         <v>164</v>
       </c>
-      <c r="E39" s="61" t="s">
-        <v>165</v>
-      </c>
       <c r="F39" s="61" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G39" s="62" t="s">
         <v>21</v>
@@ -31044,19 +31041,19 @@
         <v>38</v>
       </c>
       <c r="B40" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="C40" s="61" t="s">
-        <v>171</v>
-      </c>
-      <c r="D40" s="48" t="s">
+      <c r="E40" s="61" t="s">
         <v>169</v>
       </c>
-      <c r="E40" s="61" t="s">
-        <v>170</v>
-      </c>
       <c r="F40" s="61" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G40" s="62" t="s">
         <v>21</v>
@@ -31079,19 +31076,19 @@
         <v>39</v>
       </c>
       <c r="B41" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="D41" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="C41" s="61" t="s">
+      <c r="E41" s="61" t="s">
         <v>174</v>
       </c>
-      <c r="D41" s="48" t="s">
-        <v>173</v>
-      </c>
-      <c r="E41" s="61" t="s">
+      <c r="F41" s="61" t="s">
         <v>175</v>
-      </c>
-      <c r="F41" s="61" t="s">
-        <v>176</v>
       </c>
       <c r="G41" s="62" t="s">
         <v>75</v>
@@ -31114,19 +31111,19 @@
         <v>40</v>
       </c>
       <c r="B42" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="C42" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="C42" s="61" t="s">
+      <c r="D42" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="D42" s="48" t="s">
+      <c r="E42" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="E42" s="61" t="s">
+      <c r="F42" s="61" t="s">
         <v>180</v>
-      </c>
-      <c r="F42" s="61" t="s">
-        <v>181</v>
       </c>
       <c r="G42" s="62" t="s">
         <v>75</v>
@@ -31149,19 +31146,19 @@
         <v>41</v>
       </c>
       <c r="B43" s="48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C43" s="61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D43" s="48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E43" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="F43" s="61" t="s">
         <v>149</v>
-      </c>
-      <c r="F43" s="61" t="s">
-        <v>150</v>
       </c>
       <c r="G43" s="62" t="s">
         <v>75</v>
@@ -31184,19 +31181,19 @@
         <v>42</v>
       </c>
       <c r="B44" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C44" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="D44" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="E44" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="D44" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="E44" s="61" t="s">
-        <v>167</v>
-      </c>
       <c r="F44" s="61" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G44" s="62" t="s">
         <v>21</v>
@@ -31219,19 +31216,19 @@
         <v>43</v>
       </c>
       <c r="B45" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="C45" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="D45" s="48" t="s">
-        <v>141</v>
-      </c>
       <c r="E45" s="61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F45" s="61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G45" s="62" t="s">
         <v>21</v>
@@ -31254,19 +31251,19 @@
         <v>44</v>
       </c>
       <c r="B46" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="C46" s="61" t="s">
+      <c r="D46" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="D46" s="48" t="s">
+      <c r="E46" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="E46" s="61" t="s">
-        <v>148</v>
-      </c>
       <c r="F46" s="61" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G46" s="62" t="s">
         <v>21</v>
@@ -31289,19 +31286,19 @@
         <v>79</v>
       </c>
       <c r="B47" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="C47" s="61" t="s">
         <v>182</v>
       </c>
-      <c r="C47" s="61" t="s">
+      <c r="D47" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="D47" s="48" t="s">
+      <c r="E47" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="E47" s="61" t="s">
+      <c r="F47" s="61" t="s">
         <v>185</v>
-      </c>
-      <c r="F47" s="61" t="s">
-        <v>186</v>
       </c>
       <c r="G47" s="62" t="s">
         <v>75</v>
@@ -31324,19 +31321,19 @@
         <v>20</v>
       </c>
       <c r="B48" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="C48" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="D48" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="E48" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="C48" s="61" t="s">
-        <v>189</v>
-      </c>
-      <c r="D48" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="E48" s="61" t="s">
-        <v>188</v>
-      </c>
       <c r="F48" s="61" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G48" s="62" t="s">
         <v>21</v>
@@ -31359,19 +31356,19 @@
         <v>82</v>
       </c>
       <c r="B49" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="C49" s="61" t="s">
         <v>191</v>
       </c>
-      <c r="C49" s="61" t="s">
+      <c r="D49" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="D49" s="48" t="s">
+      <c r="E49" s="61" t="s">
         <v>193</v>
       </c>
-      <c r="E49" s="61" t="s">
-        <v>194</v>
-      </c>
       <c r="F49" s="61" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G49" s="62" t="s">
         <v>21</v>
@@ -31394,19 +31391,19 @@
         <v>83</v>
       </c>
       <c r="B50" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="C50" s="61" t="s">
         <v>195</v>
       </c>
-      <c r="C50" s="61" t="s">
+      <c r="D50" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="D50" s="48" t="s">
+      <c r="E50" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="E50" s="61" t="s">
-        <v>198</v>
-      </c>
       <c r="F50" s="61" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G50" s="62" t="s">
         <v>21</v>
@@ -31429,10 +31426,10 @@
         <v>84</v>
       </c>
       <c r="B51" s="65" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C51" s="61" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D51" s="48"/>
       <c r="E51" s="61"/>
@@ -31458,10 +31455,10 @@
         <v>85</v>
       </c>
       <c r="B52" s="65" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C52" s="61" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D52" s="48"/>
       <c r="E52" s="61"/>
@@ -31487,19 +31484,19 @@
         <v>92</v>
       </c>
       <c r="B53" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="C53" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="C53" s="61" t="s">
+      <c r="D53" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="D53" s="48" t="s">
+      <c r="E53" s="61" t="s">
         <v>204</v>
       </c>
-      <c r="E53" s="61" t="s">
+      <c r="F53" s="61" t="s">
         <v>205</v>
-      </c>
-      <c r="F53" s="61" t="s">
-        <v>206</v>
       </c>
       <c r="G53" s="62" t="s">
         <v>75</v>
@@ -31522,19 +31519,19 @@
         <v>93</v>
       </c>
       <c r="B54" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="C54" s="61" t="s">
         <v>207</v>
       </c>
-      <c r="C54" s="61" t="s">
+      <c r="D54" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="D54" s="48" t="s">
+      <c r="E54" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="E54" s="61" t="s">
+      <c r="F54" s="61" t="s">
         <v>210</v>
-      </c>
-      <c r="F54" s="61" t="s">
-        <v>211</v>
       </c>
       <c r="G54" s="62" t="s">
         <v>75</v>
@@ -31557,19 +31554,19 @@
         <v>94</v>
       </c>
       <c r="B55" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="C55" s="61" t="s">
         <v>212</v>
       </c>
-      <c r="C55" s="61" t="s">
+      <c r="D55" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="D55" s="48" t="s">
+      <c r="E55" s="61" t="s">
         <v>214</v>
       </c>
-      <c r="E55" s="61" t="s">
+      <c r="F55" s="61" t="s">
         <v>215</v>
-      </c>
-      <c r="F55" s="61" t="s">
-        <v>216</v>
       </c>
       <c r="G55" s="62" t="s">
         <v>75</v>
@@ -31592,19 +31589,19 @@
         <v>95</v>
       </c>
       <c r="B56" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="C56" s="61" t="s">
         <v>217</v>
       </c>
-      <c r="C56" s="61" t="s">
+      <c r="D56" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="D56" s="48" t="s">
+      <c r="E56" s="61" t="s">
         <v>219</v>
       </c>
-      <c r="E56" s="61" t="s">
-        <v>220</v>
-      </c>
       <c r="F56" s="61" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G56" s="62" t="s">
         <v>21</v>
@@ -31643,8 +31640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53:B59"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -31758,34 +31755,29 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F23" s="19" t="s">
-        <v>138</v>
-      </c>
-    </row>
     <row r="34" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="129" t="s">
+      <c r="A34" s="125" t="s">
         <v>11</v>
       </c>
       <c r="B34" s="120" t="s">
+        <v>408</v>
+      </c>
+      <c r="C34" s="120" t="s">
         <v>409</v>
       </c>
-      <c r="C34" s="120" t="s">
-        <v>410</v>
-      </c>
-      <c r="D34" s="129" t="s">
+      <c r="D34" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="129" t="s">
+      <c r="E34" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="129" t="s">
+      <c r="F34" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="129" t="s">
+      <c r="G34" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="129"/>
+      <c r="H34" s="125"/>
       <c r="I34" s="122" t="s">
         <v>19</v>
       </c>
@@ -31795,12 +31787,12 @@
       </c>
     </row>
     <row r="35" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="129"/>
+      <c r="A35" s="125"/>
       <c r="B35" s="121"/>
       <c r="C35" s="121"/>
-      <c r="D35" s="129"/>
-      <c r="E35" s="129"/>
-      <c r="F35" s="129"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="125"/>
       <c r="G35" s="58" t="s">
         <v>7</v>
       </c>
@@ -31819,14 +31811,14 @@
       <c r="A36" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="126" t="s">
-        <v>411</v>
+      <c r="B36" s="127" t="s">
+        <v>410</v>
       </c>
       <c r="C36" s="66" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D36" s="46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E36" s="46" t="s">
         <v>73</v>
@@ -31847,25 +31839,25 @@
         <v>44682</v>
       </c>
       <c r="K36" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A37" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="127"/>
+      <c r="B37" s="128"/>
       <c r="C37" s="66" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D37" s="66" t="s">
+        <v>222</v>
+      </c>
+      <c r="E37" s="66" t="s">
         <v>223</v>
       </c>
-      <c r="E37" s="66" t="s">
-        <v>224</v>
-      </c>
       <c r="F37" s="66" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G37" s="67" t="s">
         <v>75</v>
@@ -31880,25 +31872,25 @@
         <v>44682</v>
       </c>
       <c r="K37" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="128"/>
+      <c r="B38" s="129"/>
       <c r="C38" s="66" t="s">
+        <v>226</v>
+      </c>
+      <c r="D38" s="66" t="s">
         <v>227</v>
       </c>
-      <c r="D38" s="66" t="s">
-        <v>228</v>
-      </c>
       <c r="E38" s="66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F38" s="66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G38" s="67" t="s">
         <v>21</v>
@@ -31913,21 +31905,21 @@
         <v>44682</v>
       </c>
       <c r="K38" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A39" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="126" t="s">
-        <v>412</v>
+      <c r="B39" s="127" t="s">
+        <v>411</v>
       </c>
       <c r="C39" s="66" t="s">
+        <v>229</v>
+      </c>
+      <c r="D39" s="46" t="s">
         <v>230</v>
-      </c>
-      <c r="D39" s="46" t="s">
-        <v>231</v>
       </c>
       <c r="E39" s="46" t="s">
         <v>91</v>
@@ -31948,31 +31940,31 @@
         <v>44682</v>
       </c>
       <c r="K39" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A40" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="127"/>
+      <c r="B40" s="128"/>
       <c r="C40" s="66" t="s">
+        <v>233</v>
+      </c>
+      <c r="D40" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="D40" s="46" t="s">
+      <c r="E40" s="66" t="s">
         <v>235</v>
       </c>
-      <c r="E40" s="66" t="s">
+      <c r="F40" s="66" t="s">
         <v>236</v>
-      </c>
-      <c r="F40" s="66" t="s">
-        <v>237</v>
       </c>
       <c r="G40" s="67" t="s">
         <v>75</v>
       </c>
       <c r="H40" s="67" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I40" s="63">
         <v>44682</v>
@@ -31981,25 +31973,25 @@
         <v>44682</v>
       </c>
       <c r="K40" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A41" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="128"/>
+      <c r="B41" s="129"/>
       <c r="C41" s="66" t="s">
+        <v>231</v>
+      </c>
+      <c r="D41" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="D41" s="46" t="s">
-        <v>233</v>
-      </c>
       <c r="E41" s="66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F41" s="66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G41" s="67" t="s">
         <v>21</v>
@@ -32014,27 +32006,27 @@
         <v>44682</v>
       </c>
       <c r="K41" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A42" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="126" t="s">
-        <v>413</v>
+      <c r="B42" s="127" t="s">
+        <v>412</v>
       </c>
       <c r="C42" s="66" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D42" s="46" t="s">
+        <v>237</v>
+      </c>
+      <c r="E42" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="F42" s="46" t="s">
         <v>238</v>
-      </c>
-      <c r="E42" s="46" t="s">
-        <v>256</v>
-      </c>
-      <c r="F42" s="46" t="s">
-        <v>239</v>
       </c>
       <c r="G42" s="67" t="s">
         <v>21</v>
@@ -32049,25 +32041,25 @@
         <v>44682</v>
       </c>
       <c r="K42" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A43" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="127"/>
+      <c r="B43" s="128"/>
       <c r="C43" s="66" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D43" s="66" t="s">
+        <v>239</v>
+      </c>
+      <c r="E43" s="66" t="s">
         <v>240</v>
       </c>
-      <c r="E43" s="66" t="s">
-        <v>241</v>
-      </c>
       <c r="F43" s="66" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G43" s="67" t="s">
         <v>21</v>
@@ -32082,31 +32074,31 @@
         <v>44682</v>
       </c>
       <c r="K43" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A44" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="B44" s="127"/>
+      <c r="B44" s="128"/>
       <c r="C44" s="66" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D44" s="66" t="s">
         <v>80</v>
       </c>
       <c r="E44" s="66" t="s">
+        <v>246</v>
+      </c>
+      <c r="F44" s="66" t="s">
         <v>247</v>
-      </c>
-      <c r="F44" s="66" t="s">
-        <v>248</v>
       </c>
       <c r="G44" s="67" t="s">
         <v>75</v>
       </c>
       <c r="H44" s="67" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I44" s="63">
         <v>44682</v>
@@ -32115,25 +32107,25 @@
         <v>44682</v>
       </c>
       <c r="K44" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="128"/>
+      <c r="B45" s="129"/>
       <c r="C45" s="66" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D45" s="66" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E45" s="66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F45" s="66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G45" s="67" t="s">
         <v>21</v>
@@ -32148,27 +32140,27 @@
         <v>44682</v>
       </c>
       <c r="K45" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A46" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="B46" s="126" t="s">
-        <v>414</v>
+      <c r="B46" s="127" t="s">
+        <v>413</v>
       </c>
       <c r="C46" s="66" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D46" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="E46" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="E46" s="46" t="s">
-        <v>252</v>
-      </c>
       <c r="F46" s="46" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G46" s="67" t="s">
         <v>21</v>
@@ -32183,31 +32175,31 @@
         <v>44682</v>
       </c>
       <c r="K46" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A47" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="127"/>
+      <c r="B47" s="128"/>
       <c r="C47" s="66" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D47" s="66" t="s">
+        <v>252</v>
+      </c>
+      <c r="E47" s="66" t="s">
         <v>253</v>
       </c>
-      <c r="E47" s="66" t="s">
-        <v>254</v>
-      </c>
       <c r="F47" s="66" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G47" s="67" t="s">
         <v>75</v>
       </c>
       <c r="H47" s="67" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I47" s="63">
         <v>44682</v>
@@ -32216,25 +32208,25 @@
         <v>44682</v>
       </c>
       <c r="K47" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="128"/>
+      <c r="B48" s="129"/>
       <c r="C48" s="66" t="s">
         <v>81</v>
       </c>
       <c r="D48" s="66" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E48" s="66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F48" s="66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G48" s="67" t="s">
         <v>21</v>
@@ -32249,27 +32241,27 @@
         <v>44682</v>
       </c>
       <c r="K48" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="47" customFormat="1" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A49" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="B49" s="126" t="s">
-        <v>415</v>
+      <c r="B49" s="127" t="s">
+        <v>414</v>
       </c>
       <c r="C49" s="66" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D49" s="46" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E49" s="66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F49" s="66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G49" s="67" t="s">
         <v>21</v>
@@ -32284,25 +32276,25 @@
         <v>44682</v>
       </c>
       <c r="K49" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:11" s="47" customFormat="1" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A50" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="B50" s="128"/>
+      <c r="B50" s="129"/>
       <c r="C50" s="66" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D50" s="46" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E50" s="66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F50" s="66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G50" s="67" t="s">
         <v>21</v>
@@ -32317,27 +32309,27 @@
         <v>44682</v>
       </c>
       <c r="K50" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="68" customFormat="1" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A51" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="B51" s="125" t="s">
-        <v>416</v>
+      <c r="B51" s="126" t="s">
+        <v>415</v>
       </c>
       <c r="C51" s="66" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D51" s="46" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E51" s="66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F51" s="66" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G51" s="67" t="s">
         <v>21</v>
@@ -32352,25 +32344,25 @@
         <v>44682</v>
       </c>
       <c r="K51" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="47" customFormat="1" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A52" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="B52" s="125"/>
+      <c r="B52" s="126"/>
       <c r="C52" s="66" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D52" s="46" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E52" s="66" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F52" s="66" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G52" s="67" t="s">
         <v>75</v>
@@ -32385,33 +32377,33 @@
         <v>44682</v>
       </c>
       <c r="K52" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="47" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A53" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="B53" s="126" t="s">
-        <v>417</v>
+      <c r="B53" s="127" t="s">
+        <v>416</v>
       </c>
       <c r="C53" s="66" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D53" s="46" t="s">
+        <v>267</v>
+      </c>
+      <c r="E53" s="66" t="s">
         <v>268</v>
       </c>
-      <c r="E53" s="66" t="s">
-        <v>269</v>
-      </c>
       <c r="F53" s="66" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G53" s="67" t="s">
         <v>75</v>
       </c>
       <c r="H53" s="67" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I53" s="63">
         <v>44682</v>
@@ -32420,31 +32412,31 @@
         <v>44682</v>
       </c>
       <c r="K53" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="47" customFormat="1" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A54" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="B54" s="127"/>
+      <c r="B54" s="128"/>
       <c r="C54" s="66" t="s">
+        <v>265</v>
+      </c>
+      <c r="D54" s="46" t="s">
         <v>266</v>
       </c>
-      <c r="D54" s="46" t="s">
-        <v>267</v>
-      </c>
       <c r="E54" s="66" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F54" s="66" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G54" s="67" t="s">
         <v>75</v>
       </c>
       <c r="H54" s="67" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I54" s="63">
         <v>44682</v>
@@ -32453,31 +32445,31 @@
         <v>44682</v>
       </c>
       <c r="K54" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="47" customFormat="1" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A55" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="B55" s="127"/>
+      <c r="B55" s="128"/>
       <c r="C55" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="D55" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="D55" s="46" t="s">
+      <c r="E55" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="E55" s="66" t="s">
+      <c r="F55" s="66" t="s">
         <v>275</v>
-      </c>
-      <c r="F55" s="66" t="s">
-        <v>276</v>
       </c>
       <c r="G55" s="67" t="s">
         <v>75</v>
       </c>
       <c r="H55" s="67" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I55" s="63">
         <v>44682</v>
@@ -32486,31 +32478,31 @@
         <v>44682</v>
       </c>
       <c r="K55" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:11" s="47" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A56" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="B56" s="127"/>
+      <c r="B56" s="128"/>
       <c r="C56" s="66" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D56" s="46" t="s">
+        <v>276</v>
+      </c>
+      <c r="E56" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="E56" s="46" t="s">
+      <c r="F56" s="46" t="s">
         <v>278</v>
-      </c>
-      <c r="F56" s="46" t="s">
-        <v>279</v>
       </c>
       <c r="G56" s="67" t="s">
         <v>75</v>
       </c>
       <c r="H56" s="67" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I56" s="63">
         <v>44682</v>
@@ -32519,25 +32511,25 @@
         <v>44682</v>
       </c>
       <c r="K56" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="47" customFormat="1" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A57" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="B57" s="127"/>
+      <c r="B57" s="128"/>
       <c r="C57" s="66" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D57" s="46" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E57" s="46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F57" s="46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G57" s="67" t="s">
         <v>21</v>
@@ -32552,31 +32544,31 @@
         <v>44682</v>
       </c>
       <c r="K57" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A58" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="B58" s="127"/>
+      <c r="B58" s="128"/>
       <c r="C58" s="66" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D58" s="46" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E58" s="46" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F58" s="46" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G58" s="67" t="s">
         <v>75</v>
       </c>
       <c r="H58" s="67" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I58" s="63">
         <v>44682</v>
@@ -32585,25 +32577,25 @@
         <v>44682</v>
       </c>
       <c r="K58" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A59" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="B59" s="128"/>
+      <c r="B59" s="129"/>
       <c r="C59" s="66" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D59" s="46" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E59" s="46" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F59" s="46" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G59" s="67" t="s">
         <v>21</v>
@@ -32618,11 +32610,18 @@
         <v>44682</v>
       </c>
       <c r="K59" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B53:B59"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B49:B50"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="I34:J34"/>
@@ -32632,13 +32631,6 @@
     <mergeCell ref="D34:D35"/>
     <mergeCell ref="E34:E35"/>
     <mergeCell ref="F34:F35"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B59"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B49:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -32768,28 +32760,28 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="129" t="s">
+      <c r="A29" s="125" t="s">
         <v>11</v>
       </c>
       <c r="B29" s="120" t="s">
+        <v>408</v>
+      </c>
+      <c r="C29" s="120" t="s">
         <v>409</v>
       </c>
-      <c r="C29" s="120" t="s">
-        <v>410</v>
-      </c>
-      <c r="D29" s="129" t="s">
+      <c r="D29" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="129" t="s">
+      <c r="E29" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="129" t="s">
+      <c r="F29" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="129" t="s">
+      <c r="G29" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="129"/>
+      <c r="H29" s="125"/>
       <c r="I29" s="122" t="s">
         <v>19</v>
       </c>
@@ -32799,12 +32791,12 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="129"/>
+      <c r="A30" s="125"/>
       <c r="B30" s="121"/>
       <c r="C30" s="121"/>
-      <c r="D30" s="129"/>
-      <c r="E30" s="129"/>
-      <c r="F30" s="129"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
       <c r="G30" s="58" t="s">
         <v>7</v>
       </c>
@@ -32823,20 +32815,20 @@
       <c r="A31" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="126" t="s">
-        <v>418</v>
+      <c r="B31" s="127" t="s">
+        <v>417</v>
       </c>
       <c r="C31" s="46" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D31" s="46" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E31" s="87" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F31" s="87" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G31" s="67" t="s">
         <v>21</v>
@@ -32858,18 +32850,18 @@
       <c r="A32" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="127"/>
+      <c r="B32" s="128"/>
       <c r="C32" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="D32" s="46" t="s">
         <v>302</v>
       </c>
-      <c r="D32" s="46" t="s">
+      <c r="E32" s="87" t="s">
         <v>303</v>
       </c>
-      <c r="E32" s="87" t="s">
-        <v>304</v>
-      </c>
       <c r="F32" s="87" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G32" s="67" t="s">
         <v>21</v>
@@ -32891,18 +32883,18 @@
       <c r="A33" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="127"/>
+      <c r="B33" s="128"/>
       <c r="C33" s="46" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D33" s="46" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E33" s="87" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F33" s="87" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G33" s="67" t="s">
         <v>21</v>
@@ -32924,18 +32916,18 @@
       <c r="A34" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="B34" s="128"/>
+      <c r="B34" s="129"/>
       <c r="C34" s="46" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D34" s="46" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E34" s="87" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F34" s="87" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G34" s="67" t="s">
         <v>21</v>
@@ -32957,20 +32949,20 @@
       <c r="A35" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="126" t="s">
-        <v>419</v>
+      <c r="B35" s="127" t="s">
+        <v>418</v>
       </c>
       <c r="C35" s="46" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D35" s="46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E35" s="87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F35" s="87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G35" s="67" t="s">
         <v>21</v>
@@ -32992,18 +32984,18 @@
       <c r="A36" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="127"/>
+      <c r="B36" s="128"/>
       <c r="C36" s="46" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D36" s="46" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E36" s="87" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F36" s="87" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G36" s="67" t="s">
         <v>21</v>
@@ -33025,18 +33017,18 @@
       <c r="A37" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="128"/>
+      <c r="B37" s="129"/>
       <c r="C37" s="46" t="s">
+        <v>297</v>
+      </c>
+      <c r="D37" s="46" t="s">
         <v>298</v>
       </c>
-      <c r="D37" s="46" t="s">
-        <v>299</v>
-      </c>
       <c r="E37" s="87" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F37" s="87" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G37" s="67" t="s">
         <v>21</v>
@@ -33058,17 +33050,17 @@
       <c r="A38" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="126" t="s">
-        <v>420</v>
+      <c r="B38" s="127" t="s">
+        <v>419</v>
       </c>
       <c r="C38" s="46" t="s">
         <v>100</v>
       </c>
       <c r="D38" s="87" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E38" s="87" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F38" s="87" t="s">
         <v>99</v>
@@ -33093,18 +33085,18 @@
       <c r="A39" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="128"/>
+      <c r="B39" s="129"/>
       <c r="C39" s="87" t="s">
         <v>101</v>
       </c>
       <c r="D39" s="87" t="s">
+        <v>306</v>
+      </c>
+      <c r="E39" s="87" t="s">
         <v>307</v>
       </c>
-      <c r="E39" s="87" t="s">
-        <v>308</v>
-      </c>
       <c r="F39" s="87" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G39" s="67" t="s">
         <v>21</v>
@@ -33126,20 +33118,20 @@
       <c r="A40" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="126" t="s">
-        <v>421</v>
+      <c r="B40" s="127" t="s">
+        <v>420</v>
       </c>
       <c r="C40" s="87" t="s">
+        <v>308</v>
+      </c>
+      <c r="D40" s="87" t="s">
         <v>309</v>
       </c>
-      <c r="D40" s="87" t="s">
-        <v>310</v>
-      </c>
       <c r="E40" s="87" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F40" s="87" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G40" s="67" t="s">
         <v>75</v>
@@ -33161,18 +33153,18 @@
       <c r="A41" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="128"/>
+      <c r="B41" s="129"/>
       <c r="C41" s="87" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D41" s="87" t="s">
+        <v>312</v>
+      </c>
+      <c r="E41" s="87" t="s">
         <v>313</v>
       </c>
-      <c r="E41" s="87" t="s">
-        <v>314</v>
-      </c>
       <c r="F41" s="87" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G41" s="67" t="s">
         <v>21</v>
@@ -33195,19 +33187,19 @@
         <v>20</v>
       </c>
       <c r="B42" s="80" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C42" s="87" t="s">
+        <v>314</v>
+      </c>
+      <c r="D42" s="87" t="s">
         <v>315</v>
       </c>
-      <c r="D42" s="87" t="s">
+      <c r="E42" s="87" t="s">
         <v>316</v>
       </c>
-      <c r="E42" s="87" t="s">
-        <v>317</v>
-      </c>
       <c r="F42" s="87" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G42" s="67" t="s">
         <v>21</v>
@@ -33230,19 +33222,19 @@
         <v>82</v>
       </c>
       <c r="B43" s="46" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C43" s="87" t="s">
+        <v>318</v>
+      </c>
+      <c r="D43" s="87" t="s">
         <v>319</v>
       </c>
-      <c r="D43" s="87" t="s">
-        <v>320</v>
-      </c>
       <c r="E43" s="87" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F43" s="87" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G43" s="67" t="s">
         <v>75</v>
@@ -33265,19 +33257,19 @@
         <v>83</v>
       </c>
       <c r="B44" s="46" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C44" s="87" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D44" s="87" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E44" s="87" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F44" s="87" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G44" s="67" t="s">
         <v>75</v>
@@ -33310,6 +33302,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="G29:H29"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="A29:A30"/>
@@ -33318,11 +33315,6 @@
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="F29:F30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="G29:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -33450,28 +33442,28 @@
       </c>
     </row>
     <row r="28" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="129" t="s">
+      <c r="A28" s="125" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="120" t="s">
+        <v>408</v>
+      </c>
+      <c r="C28" s="120" t="s">
         <v>409</v>
       </c>
-      <c r="C28" s="120" t="s">
-        <v>410</v>
-      </c>
-      <c r="D28" s="129" t="s">
+      <c r="D28" s="125" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="129" t="s">
+      <c r="E28" s="125" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="129" t="s">
+      <c r="F28" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="129" t="s">
+      <c r="G28" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="H28" s="129"/>
+      <c r="H28" s="125"/>
       <c r="I28" s="122" t="s">
         <v>19</v>
       </c>
@@ -33481,12 +33473,12 @@
       </c>
     </row>
     <row r="29" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="129"/>
+      <c r="A29" s="125"/>
       <c r="B29" s="121"/>
       <c r="C29" s="121"/>
-      <c r="D29" s="129"/>
-      <c r="E29" s="129"/>
-      <c r="F29" s="129"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="125"/>
       <c r="G29" s="58" t="s">
         <v>7</v>
       </c>
@@ -33505,20 +33497,20 @@
       <c r="A30" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="138" t="s">
-        <v>425</v>
+      <c r="B30" s="131" t="s">
+        <v>424</v>
       </c>
       <c r="C30" s="61" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E30" s="61" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F30" s="61" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G30" s="62" t="s">
         <v>21</v>
@@ -33540,18 +33532,18 @@
       <c r="A31" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="B31" s="139"/>
+      <c r="B31" s="132"/>
       <c r="C31" s="61" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D31" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="E31" s="96" t="s">
         <v>332</v>
       </c>
-      <c r="E31" s="96" t="s">
-        <v>333</v>
-      </c>
       <c r="F31" s="96" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G31" s="62" t="s">
         <v>21</v>
@@ -33573,18 +33565,18 @@
       <c r="A32" s="94" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="139"/>
+      <c r="B32" s="132"/>
       <c r="C32" s="61" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D32" s="46" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E32" s="96" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F32" s="96" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G32" s="62" t="s">
         <v>21</v>
@@ -33606,18 +33598,18 @@
       <c r="A33" s="94" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="139"/>
+      <c r="B33" s="132"/>
       <c r="C33" s="61" t="s">
+        <v>334</v>
+      </c>
+      <c r="D33" s="48" t="s">
+        <v>361</v>
+      </c>
+      <c r="E33" s="94" t="s">
         <v>335</v>
       </c>
-      <c r="D33" s="48" t="s">
-        <v>362</v>
-      </c>
-      <c r="E33" s="94" t="s">
+      <c r="F33" s="94" t="s">
         <v>336</v>
-      </c>
-      <c r="F33" s="94" t="s">
-        <v>337</v>
       </c>
       <c r="G33" s="62" t="s">
         <v>75</v>
@@ -33639,18 +33631,18 @@
       <c r="A34" s="94" t="s">
         <v>90</v>
       </c>
-      <c r="B34" s="139"/>
+      <c r="B34" s="132"/>
       <c r="C34" s="61" t="s">
+        <v>363</v>
+      </c>
+      <c r="D34" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="E34" s="94" t="s">
+        <v>363</v>
+      </c>
+      <c r="F34" s="94" t="s">
         <v>364</v>
-      </c>
-      <c r="D34" s="48" t="s">
-        <v>363</v>
-      </c>
-      <c r="E34" s="94" t="s">
-        <v>364</v>
-      </c>
-      <c r="F34" s="94" t="s">
-        <v>365</v>
       </c>
       <c r="G34" s="62" t="s">
         <v>75</v>
@@ -33672,18 +33664,18 @@
       <c r="A35" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="139"/>
+      <c r="B35" s="132"/>
       <c r="C35" s="61" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D35" s="48" t="s">
+        <v>337</v>
+      </c>
+      <c r="E35" s="94" t="s">
         <v>338</v>
       </c>
-      <c r="E35" s="94" t="s">
-        <v>339</v>
-      </c>
       <c r="F35" s="94" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G35" s="62" t="s">
         <v>21</v>
@@ -33705,18 +33697,18 @@
       <c r="A36" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="139"/>
+      <c r="B36" s="132"/>
       <c r="C36" s="61" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D36" s="48" t="s">
+        <v>340</v>
+      </c>
+      <c r="E36" s="94" t="s">
         <v>341</v>
       </c>
-      <c r="E36" s="94" t="s">
-        <v>342</v>
-      </c>
       <c r="F36" s="94" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G36" s="62" t="s">
         <v>75</v>
@@ -33738,18 +33730,18 @@
       <c r="A37" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="139"/>
+      <c r="B37" s="132"/>
       <c r="C37" s="61" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D37" s="48" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E37" s="94" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F37" s="94" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G37" s="62" t="s">
         <v>21</v>
@@ -33771,18 +33763,18 @@
       <c r="A38" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="B38" s="140"/>
+      <c r="B38" s="133"/>
       <c r="C38" s="61" t="s">
+        <v>342</v>
+      </c>
+      <c r="D38" s="48" t="s">
         <v>343</v>
       </c>
-      <c r="D38" s="48" t="s">
+      <c r="E38" s="94" t="s">
         <v>344</v>
       </c>
-      <c r="E38" s="94" t="s">
-        <v>345</v>
-      </c>
       <c r="F38" s="94" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G38" s="62" t="s">
         <v>21</v>
@@ -33805,19 +33797,19 @@
         <v>44</v>
       </c>
       <c r="B39" s="96" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C39" s="61" t="s">
+        <v>345</v>
+      </c>
+      <c r="D39" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="D39" s="46" t="s">
-        <v>347</v>
-      </c>
       <c r="E39" s="94" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F39" s="94" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G39" s="62" t="s">
         <v>21</v>
@@ -33839,20 +33831,20 @@
       <c r="A40" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="135" t="s">
-        <v>427</v>
+      <c r="B40" s="138" t="s">
+        <v>426</v>
       </c>
       <c r="C40" s="61" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D40" s="48" t="s">
+        <v>347</v>
+      </c>
+      <c r="E40" s="94" t="s">
         <v>348</v>
       </c>
-      <c r="E40" s="94" t="s">
-        <v>349</v>
-      </c>
       <c r="F40" s="94" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G40" s="62" t="s">
         <v>21</v>
@@ -33874,18 +33866,18 @@
       <c r="A41" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="136"/>
+      <c r="B41" s="139"/>
       <c r="C41" s="61" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D41" s="48" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E41" s="94" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F41" s="94" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G41" s="62" t="s">
         <v>75</v>
@@ -33907,18 +33899,18 @@
       <c r="A42" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="137"/>
+      <c r="B42" s="140"/>
       <c r="C42" s="61" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D42" s="48" t="s">
+        <v>352</v>
+      </c>
+      <c r="E42" s="94" t="s">
         <v>353</v>
       </c>
-      <c r="E42" s="94" t="s">
-        <v>354</v>
-      </c>
       <c r="F42" s="94" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G42" s="62" t="s">
         <v>75</v>
@@ -33940,20 +33932,20 @@
       <c r="A43" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="135" t="s">
-        <v>428</v>
+      <c r="B43" s="138" t="s">
+        <v>427</v>
       </c>
       <c r="C43" s="61" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D43" s="46" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E43" s="94" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F43" s="94" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G43" s="62" t="s">
         <v>21</v>
@@ -33975,18 +33967,18 @@
       <c r="A44" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="137"/>
+      <c r="B44" s="140"/>
       <c r="C44" s="61" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D44" s="46" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E44" s="96" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F44" s="96" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G44" s="62" t="s">
         <v>21</v>
@@ -34008,20 +34000,20 @@
       <c r="A45" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="131" t="s">
-        <v>429</v>
+      <c r="B45" s="134" t="s">
+        <v>428</v>
       </c>
       <c r="C45" s="61" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D45" s="46" t="s">
+        <v>377</v>
+      </c>
+      <c r="E45" s="94" t="s">
         <v>378</v>
       </c>
-      <c r="E45" s="94" t="s">
+      <c r="F45" s="94" t="s">
         <v>379</v>
-      </c>
-      <c r="F45" s="94" t="s">
-        <v>380</v>
       </c>
       <c r="G45" s="62" t="s">
         <v>75</v>
@@ -34043,18 +34035,18 @@
       <c r="A46" s="94" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="132"/>
+      <c r="B46" s="135"/>
       <c r="C46" s="61" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D46" s="46" t="s">
+        <v>380</v>
+      </c>
+      <c r="E46" s="94" t="s">
         <v>381</v>
       </c>
-      <c r="E46" s="94" t="s">
-        <v>382</v>
-      </c>
       <c r="F46" s="94" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G46" s="62" t="s">
         <v>75</v>
@@ -34076,18 +34068,18 @@
       <c r="A47" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="B47" s="132"/>
+      <c r="B47" s="135"/>
       <c r="C47" s="61" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D47" s="46" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E47" s="94" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F47" s="94" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G47" s="62" t="s">
         <v>21</v>
@@ -34109,18 +34101,18 @@
       <c r="A48" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="132"/>
+      <c r="B48" s="135"/>
       <c r="C48" s="61" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D48" s="48" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E48" s="94" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F48" s="94" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G48" s="62" t="s">
         <v>21</v>
@@ -34142,18 +34134,18 @@
       <c r="A49" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="B49" s="132"/>
+      <c r="B49" s="135"/>
       <c r="C49" s="61" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D49" s="46" t="s">
+        <v>384</v>
+      </c>
+      <c r="E49" s="94" t="s">
         <v>385</v>
       </c>
-      <c r="E49" s="94" t="s">
-        <v>386</v>
-      </c>
       <c r="F49" s="94" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G49" s="62" t="s">
         <v>21</v>
@@ -34175,18 +34167,18 @@
       <c r="A50" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="B50" s="132"/>
+      <c r="B50" s="135"/>
       <c r="C50" s="97" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D50" s="46" t="s">
+        <v>386</v>
+      </c>
+      <c r="E50" s="94" t="s">
         <v>387</v>
       </c>
-      <c r="E50" s="94" t="s">
-        <v>388</v>
-      </c>
       <c r="F50" s="94" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G50" s="62" t="s">
         <v>21</v>
@@ -34208,18 +34200,18 @@
       <c r="A51" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="B51" s="132"/>
+      <c r="B51" s="135"/>
       <c r="C51" s="61" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D51" s="46" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E51" s="94" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F51" s="94" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G51" s="62" t="s">
         <v>21</v>
@@ -34241,18 +34233,18 @@
       <c r="A52" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="B52" s="132"/>
+      <c r="B52" s="135"/>
       <c r="C52" s="97" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D52" s="46" t="s">
+        <v>389</v>
+      </c>
+      <c r="E52" s="94" t="s">
         <v>390</v>
       </c>
-      <c r="E52" s="94" t="s">
-        <v>391</v>
-      </c>
       <c r="F52" s="94" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G52" s="62" t="s">
         <v>21</v>
@@ -34274,18 +34266,18 @@
       <c r="A53" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="B53" s="133"/>
+      <c r="B53" s="136"/>
       <c r="C53" s="61" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D53" s="46" t="s">
+        <v>391</v>
+      </c>
+      <c r="E53" s="94" t="s">
         <v>392</v>
       </c>
-      <c r="E53" s="94" t="s">
-        <v>393</v>
-      </c>
       <c r="F53" s="94" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G53" s="62" t="s">
         <v>21</v>
@@ -34307,20 +34299,20 @@
       <c r="A54" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="B54" s="134" t="s">
-        <v>430</v>
+      <c r="B54" s="137" t="s">
+        <v>429</v>
       </c>
       <c r="C54" s="61" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D54" s="48" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E54" s="94" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F54" s="94" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G54" s="62" t="s">
         <v>21</v>
@@ -34342,18 +34334,18 @@
       <c r="A55" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="B55" s="134"/>
+      <c r="B55" s="137"/>
       <c r="C55" s="61" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D55" s="48" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E55" s="61" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F55" s="61" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G55" s="62" t="s">
         <v>21</v>
@@ -34376,19 +34368,19 @@
         <v>133</v>
       </c>
       <c r="B56" s="94" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C56" s="61" t="s">
+        <v>397</v>
+      </c>
+      <c r="D56" s="48" t="s">
         <v>398</v>
       </c>
-      <c r="D56" s="48" t="s">
-        <v>399</v>
-      </c>
       <c r="E56" s="61" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F56" s="61" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G56" s="62" t="s">
         <v>21</v>
@@ -34410,20 +34402,20 @@
       <c r="A57" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="B57" s="135" t="s">
-        <v>431</v>
+      <c r="B57" s="138" t="s">
+        <v>430</v>
       </c>
       <c r="C57" s="61" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D57" s="48" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E57" s="61" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F57" s="61" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G57" s="62" t="s">
         <v>21</v>
@@ -34445,18 +34437,18 @@
       <c r="A58" s="94" t="s">
         <v>135</v>
       </c>
-      <c r="B58" s="136"/>
+      <c r="B58" s="139"/>
       <c r="C58" s="61" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D58" s="48" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E58" s="61" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F58" s="61" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G58" s="62" t="s">
         <v>21</v>
@@ -34478,18 +34470,18 @@
       <c r="A59" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="B59" s="136"/>
+      <c r="B59" s="139"/>
       <c r="C59" s="61" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D59" s="48" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E59" s="61" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F59" s="61" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G59" s="62" t="s">
         <v>21</v>
@@ -34509,20 +34501,20 @@
     </row>
     <row r="60" spans="1:11" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="94" t="s">
-        <v>326</v>
-      </c>
-      <c r="B60" s="137"/>
+        <v>325</v>
+      </c>
+      <c r="B60" s="140"/>
       <c r="C60" s="61" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D60" s="48" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E60" s="61" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F60" s="61" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G60" s="62" t="s">
         <v>21</v>
@@ -34542,6 +34534,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B45:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B44"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B30:B38"/>
     <mergeCell ref="G28:H28"/>
@@ -34552,11 +34549,6 @@
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="E28:E29"/>
     <mergeCell ref="F28:F29"/>
-    <mergeCell ref="B45:B53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34686,10 +34678,10 @@
         <v>11</v>
       </c>
       <c r="B31" s="120" t="s">
+        <v>408</v>
+      </c>
+      <c r="C31" s="120" t="s">
         <v>409</v>
-      </c>
-      <c r="C31" s="120" t="s">
-        <v>410</v>
       </c>
       <c r="D31" s="120" t="s">
         <v>14</v>
@@ -34738,19 +34730,19 @@
         <v>86</v>
       </c>
       <c r="B33" s="141" t="s">
+        <v>432</v>
+      </c>
+      <c r="C33" s="87" t="s">
         <v>433</v>
       </c>
-      <c r="C33" s="87" t="s">
-        <v>434</v>
-      </c>
       <c r="D33" s="46" t="s">
+        <v>437</v>
+      </c>
+      <c r="E33" s="87" t="s">
         <v>438</v>
       </c>
-      <c r="E33" s="87" t="s">
-        <v>439</v>
-      </c>
       <c r="F33" s="87" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G33" s="67" t="s">
         <v>21</v>
@@ -34765,7 +34757,7 @@
         <v>44682</v>
       </c>
       <c r="K33" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="67.2" x14ac:dyDescent="0.3">
@@ -34774,16 +34766,16 @@
       </c>
       <c r="B34" s="142"/>
       <c r="C34" s="87" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D34" s="46" t="s">
+        <v>439</v>
+      </c>
+      <c r="E34" s="87" t="s">
         <v>440</v>
       </c>
-      <c r="E34" s="87" t="s">
-        <v>441</v>
-      </c>
       <c r="F34" s="87" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G34" s="67" t="s">
         <v>21</v>
@@ -34798,7 +34790,7 @@
         <v>44682</v>
       </c>
       <c r="K34" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="67.2" x14ac:dyDescent="0.3">
@@ -34807,16 +34799,16 @@
       </c>
       <c r="B35" s="142"/>
       <c r="C35" s="87" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D35" s="46" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E35" s="87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F35" s="87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G35" s="67" t="s">
         <v>21</v>
@@ -34831,7 +34823,7 @@
         <v>44682</v>
       </c>
       <c r="K35" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="67.2" x14ac:dyDescent="0.3">
@@ -34840,16 +34832,16 @@
       </c>
       <c r="B36" s="143"/>
       <c r="C36" s="87" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D36" s="46" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E36" s="87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F36" s="87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G36" s="67" t="s">
         <v>21</v>
@@ -34864,7 +34856,7 @@
         <v>44682</v>
       </c>
       <c r="K36" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="67.2" x14ac:dyDescent="0.3">
@@ -34872,19 +34864,19 @@
         <v>90</v>
       </c>
       <c r="B37" s="141" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C37" s="87" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D37" s="46" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E37" s="87" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F37" s="87" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G37" s="67" t="s">
         <v>21</v>
@@ -34899,7 +34891,7 @@
         <v>44682</v>
       </c>
       <c r="K37" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="67.2" x14ac:dyDescent="0.3">
@@ -34908,16 +34900,16 @@
       </c>
       <c r="B38" s="142"/>
       <c r="C38" s="87" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D38" s="46" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E38" s="87" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F38" s="87" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G38" s="67" t="s">
         <v>21</v>
@@ -34932,7 +34924,7 @@
         <v>44682</v>
       </c>
       <c r="K38" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="67.2" x14ac:dyDescent="0.3">
@@ -34941,16 +34933,16 @@
       </c>
       <c r="B39" s="142"/>
       <c r="C39" s="87" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D39" s="46" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E39" s="87" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F39" s="87" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G39" s="67" t="s">
         <v>75</v>
@@ -34965,7 +34957,7 @@
         <v>44682</v>
       </c>
       <c r="K39" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="67.2" x14ac:dyDescent="0.3">
@@ -34974,16 +34966,16 @@
       </c>
       <c r="B40" s="143"/>
       <c r="C40" s="87" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D40" s="46" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E40" s="87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F40" s="87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G40" s="67" t="s">
         <v>21</v>
@@ -34998,7 +34990,7 @@
         <v>44682</v>
       </c>
       <c r="K40" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
@@ -35006,19 +34998,19 @@
         <v>78</v>
       </c>
       <c r="B41" s="141" t="s">
+        <v>453</v>
+      </c>
+      <c r="C41" s="101" t="s">
         <v>454</v>
       </c>
-      <c r="C41" s="101" t="s">
-        <v>455</v>
-      </c>
       <c r="D41" s="87" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E41" s="87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F41" s="87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G41" s="67" t="s">
         <v>75</v>
@@ -35033,7 +35025,7 @@
         <v>44682</v>
       </c>
       <c r="K41" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
@@ -35042,16 +35034,16 @@
       </c>
       <c r="B42" s="143"/>
       <c r="C42" s="101" t="s">
+        <v>455</v>
+      </c>
+      <c r="D42" s="87" t="s">
+        <v>457</v>
+      </c>
+      <c r="E42" s="87" t="s">
         <v>456</v>
       </c>
-      <c r="D42" s="87" t="s">
-        <v>458</v>
-      </c>
-      <c r="E42" s="87" t="s">
-        <v>457</v>
-      </c>
       <c r="F42" s="87" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G42" s="67" t="s">
         <v>75</v>
@@ -35066,27 +35058,27 @@
         <v>44682</v>
       </c>
       <c r="K42" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="B43" s="126" t="s">
+      <c r="B43" s="127" t="s">
+        <v>458</v>
+      </c>
+      <c r="C43" s="87" t="s">
+        <v>462</v>
+      </c>
+      <c r="D43" s="87" t="s">
         <v>459</v>
       </c>
-      <c r="C43" s="87" t="s">
-        <v>463</v>
-      </c>
-      <c r="D43" s="87" t="s">
+      <c r="E43" s="87" t="s">
         <v>460</v>
       </c>
-      <c r="E43" s="87" t="s">
-        <v>461</v>
-      </c>
       <c r="F43" s="87" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G43" s="67" t="s">
         <v>21</v>
@@ -35101,25 +35093,25 @@
         <v>44682</v>
       </c>
       <c r="K43" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A44" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="127"/>
+      <c r="B44" s="128"/>
       <c r="C44" s="87" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D44" s="87" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E44" s="87" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F44" s="87" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G44" s="67" t="s">
         <v>21</v>
@@ -35134,25 +35126,25 @@
         <v>44682</v>
       </c>
       <c r="K44" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A45" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="127"/>
+      <c r="B45" s="128"/>
       <c r="C45" s="87" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D45" s="87" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E45" s="87" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F45" s="87" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G45" s="67" t="s">
         <v>21</v>
@@ -35167,25 +35159,25 @@
         <v>44682</v>
       </c>
       <c r="K45" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="B46" s="127"/>
+      <c r="B46" s="128"/>
       <c r="C46" s="87" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D46" s="87" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E46" s="87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F46" s="87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G46" s="67" t="s">
         <v>21</v>
@@ -35200,25 +35192,25 @@
         <v>44682</v>
       </c>
       <c r="K46" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A47" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="B47" s="127"/>
+      <c r="B47" s="128"/>
       <c r="C47" s="87" t="s">
+        <v>473</v>
+      </c>
+      <c r="D47" s="87" t="s">
         <v>474</v>
       </c>
-      <c r="D47" s="87" t="s">
-        <v>475</v>
-      </c>
       <c r="E47" s="87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F47" s="87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G47" s="67" t="s">
         <v>21</v>
@@ -35233,25 +35225,25 @@
         <v>44682</v>
       </c>
       <c r="K47" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A48" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="B48" s="128"/>
+      <c r="B48" s="129"/>
       <c r="C48" s="87" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D48" s="87" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E48" s="87" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F48" s="87" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G48" s="67" t="s">
         <v>21</v>
@@ -35266,27 +35258,27 @@
         <v>44682</v>
       </c>
       <c r="K48" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="126" t="s">
-        <v>476</v>
+      <c r="B49" s="127" t="s">
+        <v>475</v>
       </c>
       <c r="C49" s="87" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D49" s="87" t="s">
+        <v>459</v>
+      </c>
+      <c r="E49" s="87" t="s">
         <v>460</v>
       </c>
-      <c r="E49" s="87" t="s">
-        <v>461</v>
-      </c>
       <c r="F49" s="87" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G49" s="67" t="s">
         <v>21</v>
@@ -35301,25 +35293,25 @@
         <v>44682</v>
       </c>
       <c r="K49" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="128"/>
+      <c r="B50" s="129"/>
       <c r="C50" s="87" t="s">
+        <v>476</v>
+      </c>
+      <c r="D50" s="87" t="s">
         <v>477</v>
       </c>
-      <c r="D50" s="87" t="s">
-        <v>478</v>
-      </c>
       <c r="E50" s="87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F50" s="87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G50" s="67" t="s">
         <v>21</v>
@@ -35334,7 +35326,7 @@
         <v>44682</v>
       </c>
       <c r="K50" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
@@ -35342,19 +35334,19 @@
         <v>94</v>
       </c>
       <c r="B51" s="46" t="s">
+        <v>478</v>
+      </c>
+      <c r="C51" s="87" t="s">
+        <v>481</v>
+      </c>
+      <c r="D51" s="87" t="s">
         <v>479</v>
       </c>
-      <c r="C51" s="87" t="s">
-        <v>482</v>
-      </c>
-      <c r="D51" s="87" t="s">
+      <c r="E51" s="87" t="s">
         <v>480</v>
       </c>
-      <c r="E51" s="87" t="s">
-        <v>481</v>
-      </c>
       <c r="F51" s="87" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G51" s="67" t="s">
         <v>21</v>
@@ -35369,7 +35361,7 @@
         <v>44682</v>
       </c>
       <c r="K51" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
@@ -35377,19 +35369,19 @@
         <v>95</v>
       </c>
       <c r="B52" s="46" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C52" s="87" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D52" s="87" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E52" s="87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F52" s="87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G52" s="67" t="s">
         <v>75</v>
@@ -35404,7 +35396,7 @@
         <v>44682</v>
       </c>
       <c r="K52" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
@@ -35412,19 +35404,19 @@
         <v>96</v>
       </c>
       <c r="B53" s="46" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C53" s="87" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D53" s="87" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E53" s="87" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F53" s="87" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G53" s="67" t="s">
         <v>75</v>
@@ -35439,27 +35431,27 @@
         <v>44682</v>
       </c>
       <c r="K53" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A54" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="126" t="s">
-        <v>485</v>
+      <c r="B54" s="127" t="s">
+        <v>484</v>
       </c>
       <c r="C54" s="87" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D54" s="87" t="s">
+        <v>486</v>
+      </c>
+      <c r="E54" s="87" t="s">
         <v>487</v>
       </c>
-      <c r="E54" s="87" t="s">
-        <v>488</v>
-      </c>
       <c r="F54" s="87" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G54" s="67" t="s">
         <v>21</v>
@@ -35474,25 +35466,25 @@
         <v>44682</v>
       </c>
       <c r="K54" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A55" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="B55" s="128"/>
+      <c r="B55" s="129"/>
       <c r="C55" s="87" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D55" s="87" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E55" s="87" t="s">
+        <v>488</v>
+      </c>
+      <c r="F55" s="87" t="s">
         <v>489</v>
-      </c>
-      <c r="F55" s="87" t="s">
-        <v>490</v>
       </c>
       <c r="G55" s="67" t="s">
         <v>75</v>
@@ -35507,7 +35499,7 @@
         <v>44682</v>
       </c>
       <c r="K55" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
@@ -35515,19 +35507,19 @@
         <v>130</v>
       </c>
       <c r="B56" s="46" t="s">
+        <v>495</v>
+      </c>
+      <c r="C56" s="87" t="s">
+        <v>492</v>
+      </c>
+      <c r="D56" s="87" t="s">
+        <v>493</v>
+      </c>
+      <c r="E56" s="87" t="s">
         <v>496</v>
       </c>
-      <c r="C56" s="87" t="s">
-        <v>493</v>
-      </c>
-      <c r="D56" s="87" t="s">
-        <v>494</v>
-      </c>
-      <c r="E56" s="87" t="s">
-        <v>497</v>
-      </c>
       <c r="F56" s="87" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G56" s="67" t="s">
         <v>21</v>
@@ -35542,11 +35534,17 @@
         <v>44682</v>
       </c>
       <c r="K56" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="B41:B42"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="I31:J31"/>
@@ -35556,12 +35554,6 @@
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="F31:F32"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B41:B42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -35698,10 +35690,10 @@
         <v>11</v>
       </c>
       <c r="B35" s="120" t="s">
+        <v>408</v>
+      </c>
+      <c r="C35" s="120" t="s">
         <v>409</v>
-      </c>
-      <c r="C35" s="120" t="s">
-        <v>410</v>
       </c>
       <c r="D35" s="120" t="s">
         <v>14</v>
@@ -35775,7 +35767,7 @@
         <v>44682</v>
       </c>
       <c r="K37" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
@@ -35808,7 +35800,7 @@
         <v>44682</v>
       </c>
       <c r="K38" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
@@ -35841,7 +35833,7 @@
         <v>44682</v>
       </c>
       <c r="K39" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
@@ -35874,7 +35866,7 @@
         <v>44682</v>
       </c>
       <c r="K40" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
@@ -35907,7 +35899,7 @@
         <v>44682</v>
       </c>
       <c r="K41" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
@@ -35940,7 +35932,7 @@
         <v>44682</v>
       </c>
       <c r="K42" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
@@ -35973,7 +35965,7 @@
         <v>44682</v>
       </c>
       <c r="K43" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
@@ -36006,7 +35998,7 @@
         <v>44682</v>
       </c>
       <c r="K44" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
@@ -36039,7 +36031,7 @@
         <v>44682</v>
       </c>
       <c r="K45" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
@@ -36072,7 +36064,7 @@
         <v>44682</v>
       </c>
       <c r="K46" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
@@ -36105,7 +36097,7 @@
         <v>44682</v>
       </c>
       <c r="K47" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
@@ -36138,7 +36130,7 @@
         <v>44682</v>
       </c>
       <c r="K48" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
@@ -36171,7 +36163,7 @@
         <v>44682</v>
       </c>
       <c r="K49" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
@@ -36204,7 +36196,7 @@
         <v>44682</v>
       </c>
       <c r="K50" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
@@ -36237,7 +36229,7 @@
         <v>44682</v>
       </c>
       <c r="K51" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
@@ -36270,7 +36262,7 @@
         <v>44682</v>
       </c>
       <c r="K52" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
@@ -36303,7 +36295,7 @@
         <v>44682</v>
       </c>
       <c r="K53" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
@@ -36336,7 +36328,7 @@
         <v>44682</v>
       </c>
       <c r="K54" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
@@ -36369,7 +36361,7 @@
         <v>44682</v>
       </c>
       <c r="K55" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
@@ -36402,7 +36394,7 @@
         <v>44682</v>
       </c>
       <c r="K56" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
@@ -36435,7 +36427,7 @@
         <v>44682</v>
       </c>
       <c r="K57" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
@@ -36468,7 +36460,7 @@
         <v>44682</v>
       </c>
       <c r="K58" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
@@ -36501,7 +36493,7 @@
         <v>44682</v>
       </c>
       <c r="K59" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
@@ -36534,7 +36526,7 @@
         <v>44682</v>
       </c>
       <c r="K60" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
@@ -36567,7 +36559,7 @@
         <v>44682</v>
       </c>
       <c r="K61" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
@@ -36600,7 +36592,7 @@
         <v>44682</v>
       </c>
       <c r="K62" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
@@ -36633,7 +36625,7 @@
         <v>44682</v>
       </c>
       <c r="K63" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
@@ -36666,7 +36658,7 @@
         <v>44682</v>
       </c>
       <c r="K64" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
@@ -36699,7 +36691,7 @@
         <v>44682</v>
       </c>
       <c r="K65" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="50.4" x14ac:dyDescent="0.3">
@@ -36732,20 +36724,20 @@
         <v>44682</v>
       </c>
       <c r="K66" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="B1:D1"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -37834,16 +37826,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="B1:D1"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
